--- a/excel/collective/zestawy_dla_uczniow/zestaw_004.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_004.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>ZESTAW ZADAŃ NR 4 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Antoni Jankowski</t>
-  </si>
-  <si>
-    <t>Natalia Wilk</t>
-  </si>
-  <si>
-    <t>Lena Rogalska</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>Kacper Wiśniewski</t>
+    <t>Hanna Maciejewska</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>Jakub Dąbrowski</t>
+  </si>
+  <si>
+    <t>Filip Wójcik</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,60</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>9,00</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>3,40</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
+    <t>0,90</t>
   </si>
   <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>23,90</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>6,90</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>3,10</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,30</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>0,90</t>
+    <t>16,50</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>15,88</t>
+    <t>10,15</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>13,75</t>
+    <t>3,97</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>9,97</t>
+    <t>15,46</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>20,46</t>
+    <t>9,27</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>2,08</t>
+    <t>24,74</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>27,74</t>
-  </si>
-  <si>
-    <t>28,90</t>
-  </si>
-  <si>
-    <t>25,68</t>
-  </si>
-  <si>
-    <t>20,25</t>
-  </si>
-  <si>
-    <t>2,61</t>
+    <t>30,17</t>
+  </si>
+  <si>
+    <t>16,83</t>
+  </si>
+  <si>
+    <t>25,91</t>
+  </si>
+  <si>
+    <t>18,00</t>
+  </si>
+  <si>
+    <t>16,96</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>5,49</t>
-  </si>
-  <si>
-    <t>28,66</t>
-  </si>
-  <si>
-    <t>21,83</t>
-  </si>
-  <si>
-    <t>12,21</t>
-  </si>
-  <si>
-    <t>5,84</t>
+    <t>27,98</t>
+  </si>
+  <si>
+    <t>21,75</t>
+  </si>
+  <si>
+    <t>21,90</t>
+  </si>
+  <si>
+    <t>21,06</t>
+  </si>
+  <si>
+    <t>30,74</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,43 +340,34 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Emilia</t>
+    <t>Julia</t>
   </si>
   <si>
     <t>Olszewska</t>
   </si>
   <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Wilk</t>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -412,127 +403,148 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Filip Piotrowski</t>
-  </si>
-  <si>
-    <t>12.06.1979</t>
-  </si>
-  <si>
-    <t>12 800,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>19.10.1983</t>
-  </si>
-  <si>
-    <t>7 122,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>05.08.1997</t>
-  </si>
-  <si>
-    <t>12 007,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Zieliński</t>
-  </si>
-  <si>
-    <t>27.10.1989</t>
-  </si>
-  <si>
-    <t>8 635,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kozłowski</t>
-  </si>
-  <si>
-    <t>16.03.2003</t>
-  </si>
-  <si>
-    <t>11 016,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>18.05.1982</t>
-  </si>
-  <si>
-    <t>9 856,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Woźniak</t>
-  </si>
-  <si>
-    <t>21.08.1983</t>
-  </si>
-  <si>
-    <t>8 955,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Urbaniak</t>
-  </si>
-  <si>
-    <t>12.04.1990</t>
-  </si>
-  <si>
-    <t>13 011,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>18.02.1994</t>
-  </si>
-  <si>
-    <t>9 443,00 zł</t>
-  </si>
-  <si>
-    <t>21.09.1989</t>
-  </si>
-  <si>
-    <t>11 955,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Grabowski</t>
-  </si>
-  <si>
-    <t>03.03.1993</t>
-  </si>
-  <si>
-    <t>7 205,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Wojciechowski</t>
-  </si>
-  <si>
-    <t>27.10.1998</t>
-  </si>
-  <si>
-    <t>11 247,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalczyk</t>
-  </si>
-  <si>
-    <t>25.10.1994</t>
-  </si>
-  <si>
-    <t>8 042,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Woźniak</t>
-  </si>
-  <si>
-    <t>20.05.1987</t>
-  </si>
-  <si>
-    <t>12 980,00 zł</t>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>23.11.2001</t>
+  </si>
+  <si>
+    <t>12 727,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kowalski</t>
+  </si>
+  <si>
+    <t>12.05.1996</t>
+  </si>
+  <si>
+    <t>3 860,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kwiatkowski</t>
+  </si>
+  <si>
+    <t>26.06.1980</t>
+  </si>
+  <si>
+    <t>6 974,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Urbaniak</t>
+  </si>
+  <si>
+    <t>20.05.1976</t>
+  </si>
+  <si>
+    <t>11 018,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Szymański</t>
+  </si>
+  <si>
+    <t>27.07.1995</t>
+  </si>
+  <si>
+    <t>8 299,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>10.08.1997</t>
+  </si>
+  <si>
+    <t>8 999,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Wilk</t>
+  </si>
+  <si>
+    <t>13.04.1997</t>
+  </si>
+  <si>
+    <t>4 659,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalczyk</t>
+  </si>
+  <si>
+    <t>06.02.1987</t>
+  </si>
+  <si>
+    <t>6 095,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Zieliński</t>
+  </si>
+  <si>
+    <t>21.02.1975</t>
+  </si>
+  <si>
+    <t>12 720,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalczyk</t>
+  </si>
+  <si>
+    <t>21.03.1995</t>
+  </si>
+  <si>
+    <t>5 096,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>12.06.1988</t>
+  </si>
+  <si>
+    <t>14 542,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kozłowski</t>
+  </si>
+  <si>
+    <t>15.01.1996</t>
+  </si>
+  <si>
+    <t>8 103,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>03.07.1981</t>
+  </si>
+  <si>
+    <t>2 766,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Sikorska</t>
+  </si>
+  <si>
+    <t>19.04.1981</t>
+  </si>
+  <si>
+    <t>7 815,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>06.05.1998</t>
+  </si>
+  <si>
+    <t>7 854,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Kubiak</t>
+  </si>
+  <si>
+    <t>22.07.1985</t>
+  </si>
+  <si>
+    <t>3 828,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -604,295 +616,307 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 001,00 zł</t>
-  </si>
-  <si>
-    <t>1 131,00 zł</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>501,00 zł</t>
+  </si>
+  <si>
+    <t>666,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 434,00 zł</t>
+  </si>
+  <si>
+    <t>1 993,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 220,00 zł</t>
+  </si>
+  <si>
+    <t>1 354,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>549,00 zł</t>
+  </si>
+  <si>
+    <t>675,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 046,00 zł</t>
+  </si>
+  <si>
+    <t>1 266,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 361,00 zł</t>
+  </si>
+  <si>
+    <t>1 647,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 307,00 zł</t>
+  </si>
+  <si>
+    <t>1 738,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>508,00 zł</t>
+  </si>
+  <si>
+    <t>610,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>509,00 zł</t>
+  </si>
+  <si>
+    <t>560,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 219,00 zł</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
   </si>
   <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 402,00 zł</t>
-  </si>
-  <si>
-    <t>1 626,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 385,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>522,00 zł</t>
+  </si>
+  <si>
+    <t>574,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 187,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 028,00 zł</t>
+  </si>
+  <si>
+    <t>1 213,00 zł</t>
+  </si>
+  <si>
+    <t>624,00 zł</t>
+  </si>
+  <si>
+    <t>874,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 378,00 zł</t>
+  </si>
+  <si>
+    <t>1 929,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>737,00 zł</t>
+  </si>
+  <si>
+    <t>899,00 zł</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 071,00 zł</t>
+  </si>
+  <si>
+    <t>1 499,00 zł</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 083,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>1 422,00 zł</t>
+  </si>
+  <si>
+    <t>1 991,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 368,00 zł</t>
+  </si>
+  <si>
+    <t>1 546,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>1 239,00 zł</t>
+  </si>
+  <si>
+    <t>1 722,00 zł</t>
+  </si>
+  <si>
+    <t>1 198,00 zł</t>
+  </si>
+  <si>
+    <t>1 199,00 zł</t>
+  </si>
+  <si>
+    <t>1 583,00 zł</t>
+  </si>
+  <si>
+    <t>1 320,00 zł</t>
+  </si>
+  <si>
+    <t>1 808,00 zł</t>
+  </si>
+  <si>
+    <t>1 009,00 zł</t>
+  </si>
+  <si>
+    <t>1 251,00 zł</t>
+  </si>
+  <si>
+    <t>774,00 zł</t>
+  </si>
+  <si>
+    <t>890,00 zł</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>857,00 zł</t>
-  </si>
-  <si>
-    <t>1 037,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 309,00 zł</t>
-  </si>
-  <si>
-    <t>1 610,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>1 253,00 zł</t>
-  </si>
-  <si>
-    <t>1 579,00 zł</t>
+    <t>1 371,00 zł</t>
+  </si>
+  <si>
+    <t>1 522,00 zł</t>
   </si>
   <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 042,00 zł</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
-  </si>
-  <si>
-    <t>1 054,00 zł</t>
-  </si>
-  <si>
-    <t>1 180,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>1 292,00 zł</t>
-  </si>
-  <si>
-    <t>1 783,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 269,00 zł</t>
-  </si>
-  <si>
-    <t>1 739,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 073,00 zł</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 140,00 zł</t>
-  </si>
-  <si>
-    <t>1 539,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
-    <t>1 608,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>924,00 zł</t>
-  </si>
-  <si>
-    <t>1 090,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 051,00 zł</t>
-  </si>
-  <si>
-    <t>1 282,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>1 368,00 zł</t>
-  </si>
-  <si>
-    <t>1 518,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>1 708,00 zł</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
-    <t>2 045,00 zł</t>
-  </si>
-  <si>
-    <t>1 047,00 zł</t>
-  </si>
-  <si>
-    <t>1 225,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 128,00 zł</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>586,00 zł</t>
-  </si>
-  <si>
-    <t>774,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 097,00 zł</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>1 076,00 zł</t>
-  </si>
-  <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 506,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>537,00 zł</t>
-  </si>
-  <si>
-    <t>601,00 zł</t>
-  </si>
-  <si>
-    <t>602,00 zł</t>
-  </si>
-  <si>
-    <t>765,00 zł</t>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>757,00 zł</t>
+  </si>
+  <si>
+    <t>977,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1449,19 +1473,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1473,16 +1497,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1491,19 +1515,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1512,19 +1536,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1533,19 +1557,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
         <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1557,16 +1581,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1575,19 +1599,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1596,19 +1620,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
         <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1620,16 +1644,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1638,16 +1662,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1659,19 +1683,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1680,7 +1704,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -1689,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1814,7 +1838,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1829,7 +1853,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1859,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1874,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1889,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2006,7 +2030,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2018,7 +2042,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2030,7 +2054,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2042,7 +2066,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2054,7 +2078,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2102,7 +2126,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2114,7 +2138,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2126,7 +2150,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2138,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2150,7 +2174,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2198,7 +2222,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2210,7 +2234,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2222,7 +2246,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2234,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2246,7 +2270,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2280,10 +2304,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2389,25 +2413,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2424,19 +2448,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
         <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2453,25 +2477,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2479,31 +2503,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2511,136 +2535,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2653,10 +2613,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2668,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2678,221 +2638,243 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="C25" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>175</v>
+      <c r="B26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2910,10 +2892,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2929,7 +2911,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2939,75 +2921,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3015,22 +2997,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3038,22 +3020,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3061,22 +3043,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3084,22 +3066,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3107,22 +3089,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3130,22 +3112,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3153,22 +3135,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3176,22 +3158,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3199,22 +3181,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3222,22 +3204,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3245,22 +3227,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3268,22 +3250,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3291,22 +3273,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3314,22 +3296,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3337,22 +3319,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3360,22 +3342,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3383,22 +3365,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3406,22 +3388,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3429,22 +3411,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3452,22 +3434,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3475,22 +3457,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3498,22 +3480,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3521,22 +3503,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3544,22 +3526,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3567,22 +3549,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3590,67 +3572,113 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>175</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_004.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_004.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>ZESTAW ZADAŃ NR 4 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 4 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,60</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>9,00</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,40</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,90</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>16,50</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>10,15</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>3,97</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>15,46</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>9,27</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>24,74</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>30,17</t>
-  </si>
-  <si>
-    <t>16,83</t>
-  </si>
-  <si>
-    <t>25,91</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>16,96</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>27,98</t>
-  </si>
-  <si>
-    <t>21,75</t>
-  </si>
-  <si>
-    <t>21,90</t>
-  </si>
-  <si>
-    <t>21,06</t>
-  </si>
-  <si>
-    <t>30,74</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -409,144 +331,96 @@
     <t>23.11.2001</t>
   </si>
   <si>
-    <t>12 727,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kowalski</t>
   </si>
   <si>
     <t>12.05.1996</t>
   </si>
   <si>
-    <t>3 860,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kwiatkowski</t>
   </si>
   <si>
     <t>26.06.1980</t>
   </si>
   <si>
-    <t>6 974,00 zł</t>
-  </si>
-  <si>
     <t>Maja Urbaniak</t>
   </si>
   <si>
     <t>20.05.1976</t>
   </si>
   <si>
-    <t>11 018,00 zł</t>
-  </si>
-  <si>
     <t>Jan Szymański</t>
   </si>
   <si>
     <t>27.07.1995</t>
   </si>
   <si>
-    <t>8 299,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Zawadzka</t>
   </si>
   <si>
     <t>10.08.1997</t>
   </si>
   <si>
-    <t>8 999,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Wilk</t>
   </si>
   <si>
     <t>13.04.1997</t>
   </si>
   <si>
-    <t>4 659,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kowalczyk</t>
   </si>
   <si>
     <t>06.02.1987</t>
   </si>
   <si>
-    <t>6 095,00 zł</t>
-  </si>
-  <si>
     <t>Adam Zieliński</t>
   </si>
   <si>
     <t>21.02.1975</t>
   </si>
   <si>
-    <t>12 720,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalczyk</t>
   </si>
   <si>
     <t>21.03.1995</t>
   </si>
   <si>
-    <t>5 096,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Bednarska</t>
   </si>
   <si>
     <t>12.06.1988</t>
   </si>
   <si>
-    <t>14 542,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kozłowski</t>
   </si>
   <si>
     <t>15.01.1996</t>
   </si>
   <si>
-    <t>8 103,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wiśniewski</t>
   </si>
   <si>
     <t>03.07.1981</t>
   </si>
   <si>
-    <t>2 766,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Sikorska</t>
   </si>
   <si>
     <t>19.04.1981</t>
   </si>
   <si>
-    <t>7 815,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kowalski</t>
   </si>
   <si>
     <t>06.05.1998</t>
   </si>
   <si>
-    <t>7 854,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Kubiak</t>
   </si>
   <si>
     <t>22.07.1985</t>
   </si>
   <si>
-    <t>3 828,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -559,9 +433,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -622,12 +493,6 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>501,00 zł</t>
-  </si>
-  <si>
-    <t>666,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -640,12 +505,6 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>1 993,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -655,12 +514,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
-    <t>1 354,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -673,12 +526,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>549,00 zł</t>
-  </si>
-  <si>
-    <t>675,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -688,12 +535,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 046,00 zł</t>
-  </si>
-  <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -703,12 +544,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 361,00 zł</t>
-  </si>
-  <si>
-    <t>1 647,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -721,12 +556,6 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 307,00 zł</t>
-  </si>
-  <si>
-    <t>1 738,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -739,36 +568,18 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>508,00 zł</t>
-  </si>
-  <si>
-    <t>610,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>509,00 zł</t>
-  </si>
-  <si>
-    <t>560,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -778,145 +589,46 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>522,00 zł</t>
-  </si>
-  <si>
-    <t>574,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 187,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 028,00 zł</t>
-  </si>
-  <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
-    <t>624,00 zł</t>
-  </si>
-  <si>
-    <t>874,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 378,00 zł</t>
-  </si>
-  <si>
-    <t>1 929,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>737,00 zł</t>
-  </si>
-  <si>
-    <t>899,00 zł</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 071,00 zł</t>
-  </si>
-  <si>
-    <t>1 499,00 zł</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 083,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>1 422,00 zł</t>
-  </si>
-  <si>
-    <t>1 991,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 368,00 zł</t>
-  </si>
-  <si>
-    <t>1 546,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>1 239,00 zł</t>
-  </si>
-  <si>
-    <t>1 722,00 zł</t>
-  </si>
-  <si>
-    <t>1 198,00 zł</t>
-  </si>
-  <si>
-    <t>1 199,00 zł</t>
-  </si>
-  <si>
-    <t>1 583,00 zł</t>
-  </si>
-  <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>1 808,00 zł</t>
-  </si>
-  <si>
-    <t>1 009,00 zł</t>
-  </si>
-  <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>774,00 zł</t>
-  </si>
-  <si>
-    <t>890,00 zł</t>
-  </si>
-  <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>1 522,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>757,00 zł</t>
-  </si>
-  <si>
-    <t>977,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -938,7 +650,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -995,14 +709,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1013,8 +727,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1045,30 +759,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,7 +1086,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,25 +1161,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1487,7 +1202,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1508,7 +1223,7 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1529,7 +1244,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1550,7 +1265,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1571,7 +1286,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1592,7 +1307,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1613,7 +1328,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1634,7 +1349,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1655,7 +1370,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1676,7 +1391,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1697,7 +1412,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1718,27 +1433,17 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1772,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1792,7 +1497,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1802,29 +1507,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1832,99 +1537,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.6</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5.5</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.4</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.9</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>16.5</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1957,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1982,113 +1687,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>10.15</v>
       </c>
       <c r="C15" s="3">
         <v>22</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.97</v>
       </c>
       <c r="C16" s="3">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15.46</v>
       </c>
       <c r="C17" s="3">
         <v>33</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9.27</v>
       </c>
       <c r="C18" s="3">
         <v>42</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>24.74</v>
       </c>
       <c r="C19" s="3">
         <v>16</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2097,94 +1802,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>30.17</v>
       </c>
       <c r="C24" s="3">
         <v>25</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>16.83</v>
       </c>
       <c r="C25" s="3">
         <v>26</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>25.91</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>18</v>
       </c>
       <c r="C27" s="3">
         <v>7</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>16.96</v>
       </c>
       <c r="C28" s="3">
         <v>27</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2193,98 +1898,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>27.98</v>
       </c>
       <c r="C33" s="3">
         <v>42</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>21.75</v>
       </c>
       <c r="C34" s="3">
         <v>25</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>21.9</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>21.059999999999999</v>
       </c>
       <c r="C36" s="3">
         <v>28</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>30.74</v>
       </c>
       <c r="C37" s="3">
         <v>23</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2307,7 +2012,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2327,90 +2032,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2433,16 +2138,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2465,16 +2170,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2497,16 +2202,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -2529,16 +2234,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2561,40 +2266,40 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2627,255 +2332,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
+      <c r="A1" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12727</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3860</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6974</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11018</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8299</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4659</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6095</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>12720</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5096</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>14542</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2766</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7815</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>171</v>
+        <v>130</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7854</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>174</v>
+        <v>132</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3828</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>175</v>
+      <c r="A29" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2910,86 +2609,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>180</v>
+      <c r="A1" s="15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>197</v>
+      <c r="A15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2997,22 +2696,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
+      </c>
+      <c r="D16" s="7">
+        <v>501</v>
+      </c>
+      <c r="E16" s="7">
+        <v>666</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3020,22 +2719,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1434</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1993</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3043,22 +2742,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1220</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1354</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3066,22 +2765,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
+      </c>
+      <c r="D19" s="7">
+        <v>549</v>
+      </c>
+      <c r="E19" s="7">
+        <v>675</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3089,22 +2788,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1046</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1266</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3112,22 +2811,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1361</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1647</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3135,22 +2834,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>177</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1307</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1738</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3158,22 +2857,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
+      </c>
+      <c r="D23" s="7">
+        <v>508</v>
+      </c>
+      <c r="E23" s="7">
+        <v>610</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3181,22 +2880,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
+      </c>
+      <c r="D24" s="7">
+        <v>509</v>
+      </c>
+      <c r="E24" s="7">
+        <v>560</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3204,22 +2903,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>173</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1219</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1365</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3227,22 +2926,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
+      </c>
+      <c r="D26" s="7">
+        <v>522</v>
+      </c>
+      <c r="E26" s="7">
+        <v>574</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3250,22 +2949,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>248</v>
+        <v>177</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1365</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3273,22 +2972,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>259</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1028</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1213</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3296,22 +2995,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>261</v>
+        <v>181</v>
+      </c>
+      <c r="D29" s="7">
+        <v>624</v>
+      </c>
+      <c r="E29" s="7">
+        <v>874</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3319,22 +3018,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>265</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1378</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1929</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3342,22 +3041,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>268</v>
+        <v>170</v>
+      </c>
+      <c r="D31" s="7">
+        <v>737</v>
+      </c>
+      <c r="E31" s="7">
+        <v>899</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3365,22 +3064,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>271</v>
+        <v>195</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1071</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1499</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3388,22 +3087,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>248</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1083</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1365</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3411,22 +3110,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>276</v>
+        <v>156</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1422</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1991</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3434,22 +3133,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>279</v>
+      <c r="D35" s="7">
+        <v>1368</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1546</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3457,22 +3156,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>282</v>
+        <v>196</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1239</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1722</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3480,22 +3179,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>212</v>
+        <v>167</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1198</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1354</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3503,22 +3202,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>285</v>
+        <v>191</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1199</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1583</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3526,22 +3225,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>287</v>
+        <v>193</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1808</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3549,22 +3248,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>289</v>
+        <v>170</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1009</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1251</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3572,22 +3271,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>291</v>
+        <v>198</v>
+      </c>
+      <c r="D41" s="7">
+        <v>774</v>
+      </c>
+      <c r="E41" s="7">
+        <v>890</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3595,22 +3294,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>294</v>
+        <v>200</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1371</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1522</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3618,68 +3317,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>298</v>
+        <v>202</v>
+      </c>
+      <c r="D43" s="7">
+        <v>757</v>
+      </c>
+      <c r="E43" s="7">
+        <v>977</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>175</v>
+      <c r="A46" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>299</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>301</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>303</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_004.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_004.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>ZESTAW ZADAŃ NR 4 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Hanna Maciejewska</t>
-  </si>
-  <si>
-    <t>Filip Grabowski</t>
-  </si>
-  <si>
-    <t>Jakub Dąbrowski</t>
-  </si>
-  <si>
-    <t>Filip Wójcik</t>
-  </si>
-  <si>
-    <t>Jakub Zieliński</t>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>Kacper Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Aleksander Nowak</t>
+  </si>
+  <si>
+    <t>Amelia Zawadzka</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 4 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
+    <t>Temperówka</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,37 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Zawadzka</t>
   </si>
   <si>
     <t>Filip</t>
   </si>
   <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -325,115 +338,121 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Oliwia Rogalska</t>
-  </si>
-  <si>
-    <t>23.11.2001</t>
-  </si>
-  <si>
-    <t>Filip Kowalski</t>
-  </si>
-  <si>
-    <t>12.05.1996</t>
-  </si>
-  <si>
-    <t>Filip Kwiatkowski</t>
-  </si>
-  <si>
-    <t>26.06.1980</t>
-  </si>
-  <si>
-    <t>Maja Urbaniak</t>
-  </si>
-  <si>
-    <t>20.05.1976</t>
-  </si>
-  <si>
-    <t>Jan Szymański</t>
-  </si>
-  <si>
-    <t>27.07.1995</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>10.08.1997</t>
-  </si>
-  <si>
-    <t>Emilia Wilk</t>
-  </si>
-  <si>
-    <t>13.04.1997</t>
-  </si>
-  <si>
     <t>Mikołaj Kowalczyk</t>
   </si>
   <si>
-    <t>06.02.1987</t>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Hanna Bednarska</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>Jan Zieliński</t>
+  </si>
+  <si>
+    <t>Zuzanna Sadowska</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Julia Górska</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>Jan Piotrowski</t>
+  </si>
+  <si>
+    <t>Kacper Kowalski</t>
+  </si>
+  <si>
+    <t>Szymon Kowalczyk</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>Hanna Lis</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>Antoni Jankowski</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Amelia Olszewska</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>Jan Wiśniewski</t>
+  </si>
+  <si>
+    <t>Oliwia Wójcik</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>Oliwia Kubiak</t>
+  </si>
+  <si>
+    <t>Kacper Mazur</t>
   </si>
   <si>
     <t>Adam Zieliński</t>
   </si>
   <si>
-    <t>21.02.1975</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalczyk</t>
-  </si>
-  <si>
-    <t>21.03.1995</t>
-  </si>
-  <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>12.06.1988</t>
-  </si>
-  <si>
-    <t>Szymon Kozłowski</t>
-  </si>
-  <si>
-    <t>15.01.1996</t>
-  </si>
-  <si>
-    <t>Jakub Wiśniewski</t>
-  </si>
-  <si>
-    <t>03.07.1981</t>
-  </si>
-  <si>
-    <t>Amelia Sikorska</t>
-  </si>
-  <si>
-    <t>19.04.1981</t>
-  </si>
-  <si>
-    <t>Wojciech Kowalski</t>
-  </si>
-  <si>
-    <t>06.05.1998</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
-  </si>
-  <si>
-    <t>22.07.1985</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Jan Nowak</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -490,145 +509,139 @@
     <t>kwiecień</t>
   </si>
   <si>
-    <t>Słuchawki bezprzewodowe</t>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>maj</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
+    <t>opolskie</t>
   </si>
   <si>
     <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -700,7 +713,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,12 +736,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -759,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -770,13 +777,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1083,7 +1089,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1188,19 +1194,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1209,19 +1215,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="F18" s="3">
         <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1230,19 +1236,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1251,16 +1257,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -1272,19 +1278,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1293,19 +1299,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1314,19 +1320,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1335,19 +1341,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1356,19 +1362,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1377,19 +1383,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1398,19 +1404,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>6</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1425,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -1444,6 +1450,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1477,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1497,7 +1509,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1507,29 +1519,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1537,99 +1549,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.6</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.6</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>17.7</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3.9</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5.4</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.9</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.2</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>16.5</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2.2</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1646,10 +1658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1662,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1687,27 +1699,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1715,85 +1727,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>10.15</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>7.33</v>
       </c>
       <c r="C15" s="3">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3.97</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9.82</v>
       </c>
       <c r="C16" s="3">
         <v>27</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>15.46</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>21.1</v>
       </c>
       <c r="C17" s="3">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>9.27</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15.95</v>
       </c>
       <c r="C18" s="3">
         <v>42</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>24.74</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>30.83</v>
       </c>
       <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1802,8 +1814,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1811,85 +1823,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>30.17</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17.63</v>
       </c>
       <c r="C24" s="3">
-        <v>25</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>16.83</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7.51</v>
       </c>
       <c r="C25" s="3">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>25.91</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>24.27</v>
       </c>
       <c r="C26" s="3">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>9.45</v>
       </c>
       <c r="C27" s="3">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>16.96</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>8.4</v>
       </c>
       <c r="C28" s="3">
-        <v>27</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1898,8 +1910,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1907,89 +1919,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>27.98</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>14.92</v>
       </c>
       <c r="C33" s="3">
-        <v>42</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>21.75</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3.19</v>
       </c>
       <c r="C34" s="3">
-        <v>25</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>21.9</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>13.3</v>
       </c>
       <c r="C35" s="3">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>21.059999999999999</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4.95</v>
       </c>
       <c r="C36" s="3">
-        <v>28</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30.74</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>27.53</v>
       </c>
       <c r="C37" s="3">
-        <v>23</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2009,10 +2029,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2032,108 +2052,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -2144,31 +2164,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
       </c>
       <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2176,31 +2196,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3">
         <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2208,31 +2228,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2240,72 +2260,136 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>6</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,10 +2402,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2332,249 +2416,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>92</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7">
-        <v>12727</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2980</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3860</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10931</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6974</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8621</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="7">
-        <v>11018</v>
+      <c r="B14" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2932</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8299</v>
+      <c r="B15" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7018</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8999</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4942</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4659</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6095</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9648</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12720</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C19" s="8">
+        <v>10220</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5096</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4475</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>14542</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12114</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8103</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C22" s="8">
+        <v>12200</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2766</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14123</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>7815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="7">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3828</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2591,10 +2653,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>109</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3">
+        <v>185</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="3">
+        <v>168</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3">
+        <v>176</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3">
+        <v>187</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3">
+        <v>136</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="3">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3">
+        <v>190</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3">
+        <v>183</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="3">
+        <v>194</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>183</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>93</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>171</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="3">
+        <v>179</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2609,86 +2882,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>137</v>
+      <c r="A1" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2696,22 +2969,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="7">
-        <v>501</v>
-      </c>
-      <c r="E16" s="7">
-        <v>666</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1042</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1188</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2719,22 +2992,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1434</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1993</v>
+        <v>166</v>
+      </c>
+      <c r="D17" s="8">
+        <v>677</v>
+      </c>
+      <c r="E17" s="8">
+        <v>873</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2742,22 +3015,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1220</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1354</v>
+        <v>169</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1177</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1330</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2765,22 +3038,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="7">
-        <v>549</v>
-      </c>
-      <c r="E19" s="7">
-        <v>675</v>
+        <v>172</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1418</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1801</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2788,22 +3061,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1046</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1266</v>
+        <v>176</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1328</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1487</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2811,22 +3084,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1361</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1647</v>
+        <v>162</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1040</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1404</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2834,22 +3107,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1307</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1738</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1391</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1725</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2857,22 +3130,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="7">
-        <v>508</v>
-      </c>
-      <c r="E23" s="7">
-        <v>610</v>
+        <v>183</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1316</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1842</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2880,22 +3153,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="7">
-        <v>509</v>
-      </c>
-      <c r="E24" s="7">
-        <v>560</v>
+        <v>187</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1469</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2042</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2903,22 +3176,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1219</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1365</v>
+        <v>189</v>
+      </c>
+      <c r="D25" s="8">
+        <v>638</v>
+      </c>
+      <c r="E25" s="8">
+        <v>702</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2926,22 +3199,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="7">
-        <v>522</v>
-      </c>
-      <c r="E26" s="7">
-        <v>574</v>
+        <v>191</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1052</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1199</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2949,22 +3222,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1187</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1365</v>
+        <v>187</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1118</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1342</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2972,22 +3245,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1028</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1213</v>
+        <v>197</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1084</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1398</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2995,22 +3268,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="7">
-        <v>624</v>
-      </c>
-      <c r="E29" s="7">
-        <v>874</v>
+        <v>187</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1069</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1219</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3018,22 +3291,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1378</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1929</v>
+        <v>189</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1165</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1538</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3041,22 +3314,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="7">
-        <v>737</v>
-      </c>
-      <c r="E31" s="7">
-        <v>899</v>
+        <v>199</v>
+      </c>
+      <c r="D31" s="8">
+        <v>866</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1091</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3064,22 +3337,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1071</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1499</v>
+      <c r="D32" s="8">
+        <v>1181</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1488</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3087,22 +3360,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1083</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1365</v>
+      <c r="D33" s="8">
+        <v>1416</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1614</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3110,22 +3383,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1422</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1991</v>
+        <v>201</v>
+      </c>
+      <c r="D34" s="8">
+        <v>818</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1121</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3133,22 +3406,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1368</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1546</v>
+        <v>166</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1166</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1434</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3156,22 +3429,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1239</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1722</v>
+        <v>203</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1456</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1878</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3179,22 +3452,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1198</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1354</v>
+        <v>191</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1255</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1619</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3202,22 +3475,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1199</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1583</v>
+        <v>189</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1408</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1563</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3225,22 +3498,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1320</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1808</v>
+      <c r="D39" s="8">
+        <v>556</v>
+      </c>
+      <c r="E39" s="8">
+        <v>645</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3248,127 +3521,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1009</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1251</v>
+        <v>166</v>
+      </c>
+      <c r="D40" s="8">
+        <v>931</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1052</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="7">
-        <v>774</v>
-      </c>
-      <c r="E41" s="7">
-        <v>890</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1371</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1522</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="7">
-        <v>757</v>
-      </c>
-      <c r="E43" s="7">
-        <v>977</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="A43" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
